--- a/pyexcel/every.xlsx
+++ b/pyexcel/every.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyinit\pyexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5364135-527E-4BEE-8AB8-B86C5AF48C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E772CB-A65E-4FB1-8DBF-1C8AFDC5E6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7481" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7553" uniqueCount="809">
   <si>
     <t>信息</t>
   </si>
@@ -2369,58 +2369,99 @@
     <t>参考人数</t>
   </si>
   <si>
+    <t>平均分</t>
+  </si>
+  <si>
+    <t>平均分名次</t>
+  </si>
+  <si>
+    <t>班级前70%人数</t>
+  </si>
+  <si>
+    <t>班级前70%平均分</t>
+  </si>
+  <si>
+    <t>班级前70%平均分名次</t>
+  </si>
+  <si>
+    <t>A人数</t>
+  </si>
+  <si>
+    <t>A率</t>
+  </si>
+  <si>
+    <t>A率名次</t>
+  </si>
+  <si>
+    <t>AB人数</t>
+  </si>
+  <si>
+    <t>AB率</t>
+  </si>
+  <si>
+    <t>AB率名次</t>
+  </si>
+  <si>
+    <t>DE人数</t>
+  </si>
+  <si>
+    <t>DE率</t>
+  </si>
+  <si>
+    <t>DE率名次</t>
+  </si>
+  <si>
+    <t>班级前70%AB人数</t>
+  </si>
+  <si>
+    <t>班级前70%AB率</t>
+  </si>
+  <si>
+    <t>班级前70%AB率名次</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>603</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>609</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>考号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>班主任</t>
-  </si>
-  <si>
-    <t>平均分</t>
-  </si>
-  <si>
-    <t>平均分名次</t>
-  </si>
-  <si>
-    <t>班级前70%人数</t>
-  </si>
-  <si>
-    <t>班级前70%平均分</t>
-  </si>
-  <si>
-    <t>班级前70%平均分名次</t>
-  </si>
-  <si>
-    <t>A人数</t>
-  </si>
-  <si>
-    <t>A率</t>
-  </si>
-  <si>
-    <t>A率名次</t>
-  </si>
-  <si>
-    <t>AB人数</t>
-  </si>
-  <si>
-    <t>AB率</t>
-  </si>
-  <si>
-    <t>AB率名次</t>
-  </si>
-  <si>
-    <t>DE人数</t>
-  </si>
-  <si>
-    <t>DE率</t>
-  </si>
-  <si>
-    <t>DE率名次</t>
-  </si>
-  <si>
-    <t>班级前70%AB人数</t>
-  </si>
-  <si>
-    <t>班级前70%AB率</t>
-  </si>
-  <si>
-    <t>班级前70%AB率名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2901,7 +2942,7 @@
   <dimension ref="A1:AK393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2969,7 +3010,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>8</v>
+        <v>807</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>9</v>
@@ -36152,7 +36193,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
@@ -47489,12 +47530,18 @@
   <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="21" max="21" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="19" max="19" width="15.25" customWidth="1"/>
+    <col min="20" max="20" width="14.5" customWidth="1"/>
+    <col min="21" max="21" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
@@ -47508,61 +47555,64 @@
         <v>777</v>
       </c>
       <c r="D1" t="s">
+        <v>808</v>
+      </c>
+      <c r="E1" t="s">
         <v>778</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>779</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>780</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>781</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>782</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>783</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>784</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>785</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>786</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>787</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>788</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>789</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>790</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>791</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>792</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>793</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>794</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B2">
         <v>31</v>
       </c>
@@ -47579,28 +47629,31 @@
         <v>5</v>
       </c>
       <c r="K2">
-        <v>0.16</v>
+        <v>0.1613</v>
       </c>
       <c r="M2">
         <v>12</v>
       </c>
       <c r="N2">
-        <v>0.39</v>
+        <v>0.3871</v>
       </c>
       <c r="P2">
         <v>9</v>
       </c>
       <c r="Q2">
-        <v>0.28999999999999998</v>
+        <v>0.2903</v>
       </c>
       <c r="S2">
         <v>12</v>
       </c>
       <c r="T2">
-        <v>0.39</v>
+        <v>0.54549999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>796</v>
+      </c>
       <c r="B3">
         <v>31</v>
       </c>
@@ -47617,28 +47670,31 @@
         <v>6</v>
       </c>
       <c r="K3">
-        <v>0.19</v>
+        <v>0.19350000000000001</v>
       </c>
       <c r="M3">
         <v>12</v>
       </c>
       <c r="N3">
-        <v>0.39</v>
+        <v>0.3871</v>
       </c>
       <c r="P3">
         <v>9</v>
       </c>
       <c r="Q3">
-        <v>0.28999999999999998</v>
+        <v>0.2903</v>
       </c>
       <c r="S3">
         <v>12</v>
       </c>
       <c r="T3">
-        <v>0.39</v>
+        <v>0.54549999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>797</v>
+      </c>
       <c r="B4">
         <v>32</v>
       </c>
@@ -47655,28 +47711,31 @@
         <v>6</v>
       </c>
       <c r="K4">
-        <v>0.19</v>
+        <v>0.1875</v>
       </c>
       <c r="M4">
         <v>15</v>
       </c>
       <c r="N4">
-        <v>0.47</v>
+        <v>0.46879999999999999</v>
       </c>
       <c r="P4">
         <v>12</v>
       </c>
       <c r="Q4">
-        <v>0.38</v>
+        <v>0.375</v>
       </c>
       <c r="S4">
         <v>15</v>
       </c>
       <c r="T4">
-        <v>0.47</v>
+        <v>0.6522</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>798</v>
+      </c>
       <c r="B5">
         <v>32</v>
       </c>
@@ -47693,28 +47752,31 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <v>0.19</v>
+        <v>0.1875</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
       <c r="N5">
-        <v>0.34</v>
+        <v>0.34379999999999999</v>
       </c>
       <c r="P5">
         <v>10</v>
       </c>
       <c r="Q5">
-        <v>0.31</v>
+        <v>0.3125</v>
       </c>
       <c r="S5">
         <v>11</v>
       </c>
       <c r="T5">
-        <v>0.34</v>
+        <v>0.4783</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>799</v>
+      </c>
       <c r="B6">
         <v>31</v>
       </c>
@@ -47731,28 +47793,31 @@
         <v>10</v>
       </c>
       <c r="K6">
-        <v>0.32</v>
+        <v>0.3226</v>
       </c>
       <c r="M6">
         <v>20</v>
       </c>
       <c r="N6">
-        <v>0.65</v>
+        <v>0.6452</v>
       </c>
       <c r="P6">
         <v>6</v>
       </c>
       <c r="Q6">
-        <v>0.19</v>
+        <v>0.19350000000000001</v>
       </c>
       <c r="S6">
         <v>20</v>
       </c>
       <c r="T6">
-        <v>0.65</v>
+        <v>0.90910000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>800</v>
+      </c>
       <c r="B7">
         <v>31</v>
       </c>
@@ -47769,28 +47834,31 @@
         <v>8</v>
       </c>
       <c r="K7">
-        <v>0.26</v>
+        <v>0.2581</v>
       </c>
       <c r="M7">
         <v>17</v>
       </c>
       <c r="N7">
-        <v>0.55000000000000004</v>
+        <v>0.5484</v>
       </c>
       <c r="P7">
         <v>7</v>
       </c>
       <c r="Q7">
-        <v>0.23</v>
+        <v>0.2258</v>
       </c>
       <c r="S7">
         <v>17</v>
       </c>
       <c r="T7">
-        <v>0.55000000000000004</v>
+        <v>0.77270000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>801</v>
+      </c>
       <c r="B8">
         <v>32</v>
       </c>
@@ -47807,28 +47875,31 @@
         <v>12</v>
       </c>
       <c r="K8">
-        <v>0.38</v>
+        <v>0.375</v>
       </c>
       <c r="M8">
         <v>18</v>
       </c>
       <c r="N8">
-        <v>0.56000000000000005</v>
+        <v>0.5625</v>
       </c>
       <c r="P8">
         <v>6</v>
       </c>
       <c r="Q8">
-        <v>0.19</v>
+        <v>0.1875</v>
       </c>
       <c r="S8">
         <v>18</v>
       </c>
       <c r="T8">
-        <v>0.56000000000000005</v>
+        <v>0.78259999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>802</v>
+      </c>
       <c r="B9">
         <v>32</v>
       </c>
@@ -47845,28 +47916,31 @@
         <v>13</v>
       </c>
       <c r="K9">
-        <v>0.41</v>
+        <v>0.40620000000000001</v>
       </c>
       <c r="M9">
         <v>19</v>
       </c>
       <c r="N9">
-        <v>0.59</v>
+        <v>0.59379999999999999</v>
       </c>
       <c r="P9">
         <v>7</v>
       </c>
       <c r="Q9">
-        <v>0.22</v>
+        <v>0.21879999999999999</v>
       </c>
       <c r="S9">
         <v>19</v>
       </c>
       <c r="T9">
-        <v>0.59</v>
+        <v>0.82609999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>803</v>
+      </c>
       <c r="B10">
         <v>31</v>
       </c>
@@ -47883,28 +47957,31 @@
         <v>11</v>
       </c>
       <c r="K10">
-        <v>0.35</v>
+        <v>0.3548</v>
       </c>
       <c r="M10">
         <v>15</v>
       </c>
       <c r="N10">
-        <v>0.48</v>
+        <v>0.4839</v>
       </c>
       <c r="P10">
         <v>7</v>
       </c>
       <c r="Q10">
-        <v>0.23</v>
+        <v>0.2258</v>
       </c>
       <c r="S10">
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.48</v>
+        <v>0.68179999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>804</v>
+      </c>
       <c r="B11">
         <v>32</v>
       </c>
@@ -47921,28 +47998,31 @@
         <v>6</v>
       </c>
       <c r="K11">
-        <v>0.19</v>
+        <v>0.1875</v>
       </c>
       <c r="M11">
         <v>18</v>
       </c>
       <c r="N11">
-        <v>0.56000000000000005</v>
+        <v>0.5625</v>
       </c>
       <c r="P11">
         <v>7</v>
       </c>
       <c r="Q11">
-        <v>0.22</v>
+        <v>0.21879999999999999</v>
       </c>
       <c r="S11">
         <v>18</v>
       </c>
       <c r="T11">
-        <v>0.56000000000000005</v>
+        <v>0.78259999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>805</v>
+      </c>
       <c r="B12">
         <v>31</v>
       </c>
@@ -47959,28 +48039,31 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <v>0.19</v>
+        <v>0.19350000000000001</v>
       </c>
       <c r="M12">
         <v>14</v>
       </c>
       <c r="N12">
-        <v>0.45</v>
+        <v>0.4516</v>
       </c>
       <c r="P12">
         <v>7</v>
       </c>
       <c r="Q12">
-        <v>0.23</v>
+        <v>0.2258</v>
       </c>
       <c r="S12">
         <v>14</v>
       </c>
       <c r="T12">
-        <v>0.45</v>
+        <v>0.63639999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>806</v>
+      </c>
       <c r="B13">
         <v>32</v>
       </c>
@@ -47997,25 +48080,25 @@
         <v>7</v>
       </c>
       <c r="K13">
-        <v>0.22</v>
+        <v>0.21879999999999999</v>
       </c>
       <c r="M13">
         <v>19</v>
       </c>
       <c r="N13">
-        <v>0.59</v>
+        <v>0.59379999999999999</v>
       </c>
       <c r="P13">
         <v>6</v>
       </c>
       <c r="Q13">
-        <v>0.19</v>
+        <v>0.1875</v>
       </c>
       <c r="S13">
         <v>19</v>
       </c>
       <c r="T13">
-        <v>0.59</v>
+        <v>0.82609999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
@@ -48032,58 +48115,61 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
+        <v>778</v>
+      </c>
+      <c r="F15" t="s">
         <v>779</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>780</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>781</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>782</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>783</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>784</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>785</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>786</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>787</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>788</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>789</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>790</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>791</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>792</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>793</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>794</v>
       </c>
-      <c r="U15" t="s">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>31</v>
       </c>
@@ -48100,28 +48186,31 @@
         <v>9</v>
       </c>
       <c r="K16">
-        <v>0.28999999999999998</v>
+        <v>0.2903</v>
       </c>
       <c r="M16">
         <v>17</v>
       </c>
       <c r="N16">
-        <v>0.55000000000000004</v>
+        <v>0.5484</v>
       </c>
       <c r="P16">
         <v>9</v>
       </c>
       <c r="Q16">
-        <v>0.28999999999999998</v>
+        <v>0.2903</v>
       </c>
       <c r="S16">
         <v>17</v>
       </c>
       <c r="T16">
-        <v>0.55000000000000004</v>
+        <v>0.77270000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>796</v>
+      </c>
       <c r="B17">
         <v>31</v>
       </c>
@@ -48138,28 +48227,31 @@
         <v>6</v>
       </c>
       <c r="K17">
-        <v>0.19</v>
+        <v>0.19350000000000001</v>
       </c>
       <c r="M17">
         <v>14</v>
       </c>
       <c r="N17">
-        <v>0.45</v>
+        <v>0.4516</v>
       </c>
       <c r="P17">
         <v>5</v>
       </c>
       <c r="Q17">
-        <v>0.16</v>
+        <v>0.1613</v>
       </c>
       <c r="S17">
         <v>14</v>
       </c>
       <c r="T17">
-        <v>0.45</v>
+        <v>0.63639999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>797</v>
+      </c>
       <c r="B18">
         <v>32</v>
       </c>
@@ -48176,28 +48268,31 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <v>0.19</v>
+        <v>0.1875</v>
       </c>
       <c r="M18">
         <v>13</v>
       </c>
       <c r="N18">
-        <v>0.41</v>
+        <v>0.40620000000000001</v>
       </c>
       <c r="P18">
         <v>13</v>
       </c>
       <c r="Q18">
-        <v>0.41</v>
+        <v>0.40620000000000001</v>
       </c>
       <c r="S18">
         <v>12</v>
       </c>
       <c r="T18">
-        <v>0.38</v>
+        <v>0.52170000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>798</v>
+      </c>
       <c r="B19">
         <v>32</v>
       </c>
@@ -48214,28 +48309,31 @@
         <v>9</v>
       </c>
       <c r="K19">
-        <v>0.28000000000000003</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="M19">
         <v>17</v>
       </c>
       <c r="N19">
-        <v>0.53</v>
+        <v>0.53120000000000001</v>
       </c>
       <c r="P19">
         <v>3</v>
       </c>
       <c r="Q19">
-        <v>0.09</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="S19">
         <v>15</v>
       </c>
       <c r="T19">
-        <v>0.47</v>
+        <v>0.6522</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>799</v>
+      </c>
       <c r="B20">
         <v>31</v>
       </c>
@@ -48252,28 +48350,31 @@
         <v>11</v>
       </c>
       <c r="K20">
-        <v>0.35</v>
+        <v>0.3548</v>
       </c>
       <c r="M20">
         <v>20</v>
       </c>
       <c r="N20">
-        <v>0.65</v>
+        <v>0.6452</v>
       </c>
       <c r="P20">
         <v>4</v>
       </c>
       <c r="Q20">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="S20">
         <v>19</v>
       </c>
       <c r="T20">
-        <v>0.61</v>
+        <v>0.86360000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>800</v>
+      </c>
       <c r="B21">
         <v>31</v>
       </c>
@@ -48290,28 +48391,31 @@
         <v>12</v>
       </c>
       <c r="K21">
-        <v>0.39</v>
+        <v>0.3871</v>
       </c>
       <c r="M21">
         <v>18</v>
       </c>
       <c r="N21">
-        <v>0.57999999999999996</v>
+        <v>0.5806</v>
       </c>
       <c r="P21">
         <v>6</v>
       </c>
       <c r="Q21">
-        <v>0.19</v>
+        <v>0.19350000000000001</v>
       </c>
       <c r="S21">
         <v>17</v>
       </c>
       <c r="T21">
-        <v>0.55000000000000004</v>
+        <v>0.77270000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>801</v>
+      </c>
       <c r="B22">
         <v>32</v>
       </c>
@@ -48328,28 +48432,31 @@
         <v>13</v>
       </c>
       <c r="K22">
-        <v>0.41</v>
+        <v>0.40620000000000001</v>
       </c>
       <c r="M22">
         <v>21</v>
       </c>
       <c r="N22">
-        <v>0.66</v>
+        <v>0.65620000000000001</v>
       </c>
       <c r="P22">
         <v>5</v>
       </c>
       <c r="Q22">
-        <v>0.16</v>
+        <v>0.15620000000000001</v>
       </c>
       <c r="S22">
         <v>20</v>
       </c>
       <c r="T22">
-        <v>0.62</v>
+        <v>0.86960000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>802</v>
+      </c>
       <c r="B23">
         <v>32</v>
       </c>
@@ -48372,22 +48479,25 @@
         <v>18</v>
       </c>
       <c r="N23">
-        <v>0.56000000000000005</v>
+        <v>0.5625</v>
       </c>
       <c r="P23">
         <v>9</v>
       </c>
       <c r="Q23">
-        <v>0.28000000000000003</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="S23">
         <v>17</v>
       </c>
       <c r="T23">
-        <v>0.53</v>
+        <v>0.73909999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>803</v>
+      </c>
       <c r="B24">
         <v>31</v>
       </c>
@@ -48404,28 +48514,31 @@
         <v>10</v>
       </c>
       <c r="K24">
-        <v>0.32</v>
+        <v>0.3226</v>
       </c>
       <c r="M24">
         <v>14</v>
       </c>
       <c r="N24">
-        <v>0.45</v>
+        <v>0.4516</v>
       </c>
       <c r="P24">
         <v>9</v>
       </c>
       <c r="Q24">
-        <v>0.28999999999999998</v>
+        <v>0.2903</v>
       </c>
       <c r="S24">
         <v>13</v>
       </c>
       <c r="T24">
-        <v>0.42</v>
+        <v>0.59089999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>804</v>
+      </c>
       <c r="B25">
         <v>32</v>
       </c>
@@ -48454,16 +48567,19 @@
         <v>7</v>
       </c>
       <c r="Q25">
-        <v>0.22</v>
+        <v>0.21879999999999999</v>
       </c>
       <c r="S25">
         <v>15</v>
       </c>
       <c r="T25">
-        <v>0.47</v>
+        <v>0.6522</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>805</v>
+      </c>
       <c r="B26">
         <v>31</v>
       </c>
@@ -48480,28 +48596,31 @@
         <v>5</v>
       </c>
       <c r="K26">
-        <v>0.16</v>
+        <v>0.1613</v>
       </c>
       <c r="M26">
         <v>16</v>
       </c>
       <c r="N26">
-        <v>0.52</v>
+        <v>0.5161</v>
       </c>
       <c r="P26">
         <v>7</v>
       </c>
       <c r="Q26">
-        <v>0.23</v>
+        <v>0.2258</v>
       </c>
       <c r="S26">
         <v>16</v>
       </c>
       <c r="T26">
-        <v>0.52</v>
+        <v>0.72729999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>806</v>
+      </c>
       <c r="B27">
         <v>32</v>
       </c>
@@ -48518,25 +48637,25 @@
         <v>12</v>
       </c>
       <c r="K27">
-        <v>0.38</v>
+        <v>0.375</v>
       </c>
       <c r="M27">
         <v>23</v>
       </c>
       <c r="N27">
-        <v>0.72</v>
+        <v>0.71879999999999999</v>
       </c>
       <c r="P27">
         <v>7</v>
       </c>
       <c r="Q27">
-        <v>0.22</v>
+        <v>0.21879999999999999</v>
       </c>
       <c r="S27">
         <v>22</v>
       </c>
       <c r="T27">
-        <v>0.69</v>
+        <v>0.95650000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
@@ -48553,58 +48672,61 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
+        <v>778</v>
+      </c>
+      <c r="F29" t="s">
         <v>779</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>780</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>781</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>782</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>783</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>784</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>785</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>786</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>787</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>788</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>789</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>790</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>791</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>792</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>793</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>794</v>
       </c>
-      <c r="U29" t="s">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>31</v>
       </c>
@@ -48621,28 +48743,31 @@
         <v>7</v>
       </c>
       <c r="K30">
-        <v>0.23</v>
+        <v>0.2258</v>
       </c>
       <c r="M30">
         <v>11</v>
       </c>
       <c r="N30">
-        <v>0.35</v>
+        <v>0.3548</v>
       </c>
       <c r="P30">
         <v>7</v>
       </c>
       <c r="Q30">
-        <v>0.23</v>
+        <v>0.2258</v>
       </c>
       <c r="S30">
         <v>11</v>
       </c>
       <c r="T30">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>796</v>
+      </c>
       <c r="B31">
         <v>31</v>
       </c>
@@ -48659,28 +48784,31 @@
         <v>9</v>
       </c>
       <c r="K31">
-        <v>0.28999999999999998</v>
+        <v>0.2903</v>
       </c>
       <c r="M31">
         <v>17</v>
       </c>
       <c r="N31">
-        <v>0.55000000000000004</v>
+        <v>0.5484</v>
       </c>
       <c r="P31">
         <v>9</v>
       </c>
       <c r="Q31">
-        <v>0.28999999999999998</v>
+        <v>0.2903</v>
       </c>
       <c r="S31">
         <v>16</v>
       </c>
       <c r="T31">
-        <v>0.52</v>
+        <v>0.72729999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>797</v>
+      </c>
       <c r="B32">
         <v>32</v>
       </c>
@@ -48697,7 +48825,7 @@
         <v>6</v>
       </c>
       <c r="K32">
-        <v>0.19</v>
+        <v>0.1875</v>
       </c>
       <c r="M32">
         <v>16</v>
@@ -48715,10 +48843,13 @@
         <v>16</v>
       </c>
       <c r="T32">
-        <v>0.5</v>
+        <v>0.69569999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>798</v>
+      </c>
       <c r="B33">
         <v>32</v>
       </c>
@@ -48741,22 +48872,25 @@
         <v>13</v>
       </c>
       <c r="N33">
-        <v>0.41</v>
+        <v>0.40620000000000001</v>
       </c>
       <c r="P33">
         <v>7</v>
       </c>
       <c r="Q33">
-        <v>0.22</v>
+        <v>0.21879999999999999</v>
       </c>
       <c r="S33">
         <v>13</v>
       </c>
       <c r="T33">
-        <v>0.41</v>
+        <v>0.56520000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>799</v>
+      </c>
       <c r="B34">
         <v>31</v>
       </c>
@@ -48773,28 +48907,31 @@
         <v>9</v>
       </c>
       <c r="K34">
-        <v>0.28999999999999998</v>
+        <v>0.2903</v>
       </c>
       <c r="M34">
         <v>20</v>
       </c>
       <c r="N34">
-        <v>0.65</v>
+        <v>0.6452</v>
       </c>
       <c r="P34">
         <v>5</v>
       </c>
       <c r="Q34">
-        <v>0.16</v>
+        <v>0.1613</v>
       </c>
       <c r="S34">
         <v>19</v>
       </c>
       <c r="T34">
-        <v>0.61</v>
+        <v>0.86360000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>800</v>
+      </c>
       <c r="B35">
         <v>31</v>
       </c>
@@ -48811,28 +48948,31 @@
         <v>8</v>
       </c>
       <c r="K35">
-        <v>0.26</v>
+        <v>0.2581</v>
       </c>
       <c r="M35">
         <v>18</v>
       </c>
       <c r="N35">
-        <v>0.57999999999999996</v>
+        <v>0.5806</v>
       </c>
       <c r="P35">
         <v>8</v>
       </c>
       <c r="Q35">
-        <v>0.26</v>
+        <v>0.2581</v>
       </c>
       <c r="S35">
         <v>17</v>
       </c>
       <c r="T35">
-        <v>0.55000000000000004</v>
+        <v>0.77270000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>801</v>
+      </c>
       <c r="B36">
         <v>32</v>
       </c>
@@ -48849,7 +48989,7 @@
         <v>9</v>
       </c>
       <c r="K36">
-        <v>0.28000000000000003</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="M36">
         <v>16</v>
@@ -48867,10 +49007,13 @@
         <v>16</v>
       </c>
       <c r="T36">
-        <v>0.5</v>
+        <v>0.69569999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>802</v>
+      </c>
       <c r="B37">
         <v>32</v>
       </c>
@@ -48887,28 +49030,31 @@
         <v>9</v>
       </c>
       <c r="K37">
-        <v>0.28000000000000003</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="M37">
         <v>19</v>
       </c>
       <c r="N37">
-        <v>0.59</v>
+        <v>0.59379999999999999</v>
       </c>
       <c r="P37">
         <v>5</v>
       </c>
       <c r="Q37">
-        <v>0.16</v>
+        <v>0.15620000000000001</v>
       </c>
       <c r="S37">
         <v>19</v>
       </c>
       <c r="T37">
-        <v>0.59</v>
+        <v>0.82609999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>803</v>
+      </c>
       <c r="B38">
         <v>31</v>
       </c>
@@ -48925,28 +49071,31 @@
         <v>10</v>
       </c>
       <c r="K38">
-        <v>0.32</v>
+        <v>0.3226</v>
       </c>
       <c r="M38">
         <v>16</v>
       </c>
       <c r="N38">
-        <v>0.52</v>
+        <v>0.5161</v>
       </c>
       <c r="P38">
         <v>10</v>
       </c>
       <c r="Q38">
-        <v>0.32</v>
+        <v>0.3226</v>
       </c>
       <c r="S38">
         <v>15</v>
       </c>
       <c r="T38">
-        <v>0.48</v>
+        <v>0.68179999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>804</v>
+      </c>
       <c r="B39">
         <v>32</v>
       </c>
@@ -48963,28 +49112,31 @@
         <v>10</v>
       </c>
       <c r="K39">
-        <v>0.31</v>
+        <v>0.3125</v>
       </c>
       <c r="M39">
         <v>18</v>
       </c>
       <c r="N39">
-        <v>0.56000000000000005</v>
+        <v>0.5625</v>
       </c>
       <c r="P39">
         <v>6</v>
       </c>
       <c r="Q39">
-        <v>0.19</v>
+        <v>0.1875</v>
       </c>
       <c r="S39">
         <v>16</v>
       </c>
       <c r="T39">
-        <v>0.5</v>
+        <v>0.69569999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>805</v>
+      </c>
       <c r="B40">
         <v>31</v>
       </c>
@@ -49001,28 +49153,31 @@
         <v>6</v>
       </c>
       <c r="K40">
-        <v>0.19</v>
+        <v>0.19350000000000001</v>
       </c>
       <c r="M40">
         <v>15</v>
       </c>
       <c r="N40">
-        <v>0.48</v>
+        <v>0.4839</v>
       </c>
       <c r="P40">
         <v>10</v>
       </c>
       <c r="Q40">
-        <v>0.32</v>
+        <v>0.3226</v>
       </c>
       <c r="S40">
         <v>14</v>
       </c>
       <c r="T40">
-        <v>0.45</v>
+        <v>0.63639999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>806</v>
+      </c>
       <c r="B41">
         <v>32</v>
       </c>
@@ -49045,7 +49200,7 @@
         <v>15</v>
       </c>
       <c r="N41">
-        <v>0.47</v>
+        <v>0.46879999999999999</v>
       </c>
       <c r="P41">
         <v>8</v>
@@ -49057,7 +49212,7 @@
         <v>14</v>
       </c>
       <c r="T41">
-        <v>0.44</v>
+        <v>0.60870000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.15">
@@ -49074,58 +49229,61 @@
         <v>4</v>
       </c>
       <c r="E43" t="s">
+        <v>778</v>
+      </c>
+      <c r="F43" t="s">
         <v>779</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>780</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>781</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>782</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>783</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>784</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>785</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>786</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>787</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>788</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>789</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>790</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>791</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>792</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>793</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>794</v>
       </c>
-      <c r="U43" t="s">
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>31</v>
       </c>
@@ -49142,28 +49300,31 @@
         <v>8</v>
       </c>
       <c r="K44">
-        <v>0.26</v>
+        <v>0.2581</v>
       </c>
       <c r="M44">
         <v>16</v>
       </c>
       <c r="N44">
-        <v>0.52</v>
+        <v>0.5161</v>
       </c>
       <c r="P44">
         <v>7</v>
       </c>
       <c r="Q44">
-        <v>0.23</v>
+        <v>0.2258</v>
       </c>
       <c r="S44">
         <v>16</v>
       </c>
       <c r="T44">
-        <v>0.52</v>
+        <v>0.72729999999999995</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>796</v>
+      </c>
       <c r="B45">
         <v>31</v>
       </c>
@@ -49180,28 +49341,31 @@
         <v>7</v>
       </c>
       <c r="K45">
-        <v>0.23</v>
+        <v>0.2258</v>
       </c>
       <c r="M45">
         <v>14</v>
       </c>
       <c r="N45">
-        <v>0.45</v>
+        <v>0.4516</v>
       </c>
       <c r="P45">
         <v>7</v>
       </c>
       <c r="Q45">
-        <v>0.23</v>
+        <v>0.2258</v>
       </c>
       <c r="S45">
         <v>14</v>
       </c>
       <c r="T45">
-        <v>0.45</v>
+        <v>0.63639999999999997</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>797</v>
+      </c>
       <c r="B46">
         <v>32</v>
       </c>
@@ -49218,28 +49382,31 @@
         <v>7</v>
       </c>
       <c r="K46">
-        <v>0.22</v>
+        <v>0.21879999999999999</v>
       </c>
       <c r="M46">
         <v>17</v>
       </c>
       <c r="N46">
-        <v>0.53</v>
+        <v>0.53120000000000001</v>
       </c>
       <c r="P46">
         <v>6</v>
       </c>
       <c r="Q46">
-        <v>0.19</v>
+        <v>0.1875</v>
       </c>
       <c r="S46">
         <v>16</v>
       </c>
       <c r="T46">
-        <v>0.5</v>
+        <v>0.69569999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>798</v>
+      </c>
       <c r="B47">
         <v>32</v>
       </c>
@@ -49256,28 +49423,31 @@
         <v>5</v>
       </c>
       <c r="K47">
-        <v>0.16</v>
+        <v>0.15620000000000001</v>
       </c>
       <c r="M47">
         <v>14</v>
       </c>
       <c r="N47">
-        <v>0.44</v>
+        <v>0.4375</v>
       </c>
       <c r="P47">
         <v>9</v>
       </c>
       <c r="Q47">
-        <v>0.28000000000000003</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="S47">
         <v>13</v>
       </c>
       <c r="T47">
-        <v>0.41</v>
+        <v>0.56520000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>799</v>
+      </c>
       <c r="B48">
         <v>31</v>
       </c>
@@ -49294,28 +49464,31 @@
         <v>16</v>
       </c>
       <c r="K48">
-        <v>0.52</v>
+        <v>0.5161</v>
       </c>
       <c r="M48">
         <v>20</v>
       </c>
       <c r="N48">
-        <v>0.65</v>
+        <v>0.6452</v>
       </c>
       <c r="P48">
         <v>7</v>
       </c>
       <c r="Q48">
-        <v>0.23</v>
+        <v>0.2258</v>
       </c>
       <c r="S48">
         <v>19</v>
       </c>
       <c r="T48">
-        <v>0.61</v>
+        <v>0.86360000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>800</v>
+      </c>
       <c r="B49">
         <v>31</v>
       </c>
@@ -49332,28 +49505,31 @@
         <v>11</v>
       </c>
       <c r="K49">
-        <v>0.35</v>
+        <v>0.3548</v>
       </c>
       <c r="M49">
         <v>16</v>
       </c>
       <c r="N49">
-        <v>0.52</v>
+        <v>0.5161</v>
       </c>
       <c r="P49">
         <v>10</v>
       </c>
       <c r="Q49">
-        <v>0.32</v>
+        <v>0.3226</v>
       </c>
       <c r="S49">
         <v>16</v>
       </c>
       <c r="T49">
-        <v>0.52</v>
+        <v>0.72729999999999995</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>801</v>
+      </c>
       <c r="B50">
         <v>32</v>
       </c>
@@ -49376,22 +49552,25 @@
         <v>17</v>
       </c>
       <c r="N50">
-        <v>0.53</v>
+        <v>0.53120000000000001</v>
       </c>
       <c r="P50">
         <v>4</v>
       </c>
       <c r="Q50">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="S50">
         <v>17</v>
       </c>
       <c r="T50">
-        <v>0.53</v>
+        <v>0.73909999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>802</v>
+      </c>
       <c r="B51">
         <v>32</v>
       </c>
@@ -49408,13 +49587,13 @@
         <v>7</v>
       </c>
       <c r="K51">
-        <v>0.22</v>
+        <v>0.21879999999999999</v>
       </c>
       <c r="M51">
         <v>15</v>
       </c>
       <c r="N51">
-        <v>0.47</v>
+        <v>0.46879999999999999</v>
       </c>
       <c r="P51">
         <v>8</v>
@@ -49426,10 +49605,13 @@
         <v>15</v>
       </c>
       <c r="T51">
-        <v>0.47</v>
+        <v>0.6522</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>803</v>
+      </c>
       <c r="B52">
         <v>31</v>
       </c>
@@ -49446,28 +49628,31 @@
         <v>7</v>
       </c>
       <c r="K52">
-        <v>0.23</v>
+        <v>0.2258</v>
       </c>
       <c r="M52">
         <v>13</v>
       </c>
       <c r="N52">
-        <v>0.42</v>
+        <v>0.4194</v>
       </c>
       <c r="P52">
         <v>7</v>
       </c>
       <c r="Q52">
-        <v>0.23</v>
+        <v>0.2258</v>
       </c>
       <c r="S52">
         <v>13</v>
       </c>
       <c r="T52">
-        <v>0.42</v>
+        <v>0.59089999999999998</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>804</v>
+      </c>
       <c r="B53">
         <v>32</v>
       </c>
@@ -49484,28 +49669,31 @@
         <v>9</v>
       </c>
       <c r="K53">
-        <v>0.28000000000000003</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="M53">
         <v>17</v>
       </c>
       <c r="N53">
-        <v>0.53</v>
+        <v>0.53120000000000001</v>
       </c>
       <c r="P53">
         <v>9</v>
       </c>
       <c r="Q53">
-        <v>0.28000000000000003</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="S53">
         <v>17</v>
       </c>
       <c r="T53">
-        <v>0.53</v>
+        <v>0.73909999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>805</v>
+      </c>
       <c r="B54">
         <v>31</v>
       </c>
@@ -49522,28 +49710,31 @@
         <v>11</v>
       </c>
       <c r="K54">
-        <v>0.35</v>
+        <v>0.3548</v>
       </c>
       <c r="M54">
         <v>16</v>
       </c>
       <c r="N54">
-        <v>0.52</v>
+        <v>0.5161</v>
       </c>
       <c r="P54">
         <v>5</v>
       </c>
       <c r="Q54">
-        <v>0.16</v>
+        <v>0.1613</v>
       </c>
       <c r="S54">
         <v>16</v>
       </c>
       <c r="T54">
-        <v>0.52</v>
+        <v>0.72729999999999995</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>806</v>
+      </c>
       <c r="B55">
         <v>32</v>
       </c>
@@ -49560,13 +49751,13 @@
         <v>9</v>
       </c>
       <c r="K55">
-        <v>0.28000000000000003</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="M55">
         <v>18</v>
       </c>
       <c r="N55">
-        <v>0.56000000000000005</v>
+        <v>0.5625</v>
       </c>
       <c r="P55">
         <v>8</v>
@@ -49578,7 +49769,7 @@
         <v>18</v>
       </c>
       <c r="T55">
-        <v>0.56000000000000005</v>
+        <v>0.78259999999999996</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.15">
@@ -49595,58 +49786,61 @@
         <v>5</v>
       </c>
       <c r="E57" t="s">
+        <v>778</v>
+      </c>
+      <c r="F57" t="s">
         <v>779</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>780</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>781</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>782</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>783</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>784</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>785</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>786</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>787</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>788</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>789</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>790</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>791</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>792</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>793</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>794</v>
       </c>
-      <c r="U57" t="s">
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B58">
         <v>31</v>
       </c>
@@ -49663,28 +49857,31 @@
         <v>4</v>
       </c>
       <c r="K58">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="M58">
         <v>17</v>
       </c>
       <c r="N58">
-        <v>0.55000000000000004</v>
+        <v>0.5484</v>
       </c>
       <c r="P58">
         <v>10</v>
       </c>
       <c r="Q58">
-        <v>0.32</v>
+        <v>0.3226</v>
       </c>
       <c r="S58">
         <v>14</v>
       </c>
       <c r="T58">
-        <v>0.45</v>
+        <v>0.63639999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>796</v>
+      </c>
       <c r="B59">
         <v>31</v>
       </c>
@@ -49701,28 +49898,31 @@
         <v>6</v>
       </c>
       <c r="K59">
-        <v>0.19</v>
+        <v>0.19350000000000001</v>
       </c>
       <c r="M59">
         <v>8</v>
       </c>
       <c r="N59">
-        <v>0.26</v>
+        <v>0.2581</v>
       </c>
       <c r="P59">
         <v>12</v>
       </c>
       <c r="Q59">
-        <v>0.39</v>
+        <v>0.3871</v>
       </c>
       <c r="S59">
         <v>8</v>
       </c>
       <c r="T59">
-        <v>0.26</v>
+        <v>0.36359999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>797</v>
+      </c>
       <c r="B60">
         <v>32</v>
       </c>
@@ -49739,28 +49939,31 @@
         <v>6</v>
       </c>
       <c r="K60">
-        <v>0.19</v>
+        <v>0.1875</v>
       </c>
       <c r="M60">
         <v>9</v>
       </c>
       <c r="N60">
-        <v>0.28000000000000003</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="P60">
         <v>15</v>
       </c>
       <c r="Q60">
-        <v>0.47</v>
+        <v>0.46879999999999999</v>
       </c>
       <c r="S60">
         <v>9</v>
       </c>
       <c r="T60">
-        <v>0.28000000000000003</v>
+        <v>0.39129999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>798</v>
+      </c>
       <c r="B61">
         <v>32</v>
       </c>
@@ -49777,28 +49980,31 @@
         <v>5</v>
       </c>
       <c r="K61">
-        <v>0.16</v>
+        <v>0.15620000000000001</v>
       </c>
       <c r="M61">
         <v>11</v>
       </c>
       <c r="N61">
-        <v>0.34</v>
+        <v>0.34379999999999999</v>
       </c>
       <c r="P61">
         <v>11</v>
       </c>
       <c r="Q61">
-        <v>0.34</v>
+        <v>0.34379999999999999</v>
       </c>
       <c r="S61">
         <v>10</v>
       </c>
       <c r="T61">
-        <v>0.31</v>
+        <v>0.43480000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>799</v>
+      </c>
       <c r="B62">
         <v>31</v>
       </c>
@@ -49815,28 +50021,31 @@
         <v>7</v>
       </c>
       <c r="K62">
-        <v>0.23</v>
+        <v>0.2258</v>
       </c>
       <c r="M62">
         <v>20</v>
       </c>
       <c r="N62">
-        <v>0.65</v>
+        <v>0.6452</v>
       </c>
       <c r="P62">
         <v>7</v>
       </c>
       <c r="Q62">
-        <v>0.23</v>
+        <v>0.2258</v>
       </c>
       <c r="S62">
         <v>19</v>
       </c>
       <c r="T62">
-        <v>0.61</v>
+        <v>0.86360000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>800</v>
+      </c>
       <c r="B63">
         <v>31</v>
       </c>
@@ -49853,28 +50062,31 @@
         <v>6</v>
       </c>
       <c r="K63">
-        <v>0.19</v>
+        <v>0.19350000000000001</v>
       </c>
       <c r="M63">
         <v>11</v>
       </c>
       <c r="N63">
-        <v>0.35</v>
+        <v>0.3548</v>
       </c>
       <c r="P63">
         <v>9</v>
       </c>
       <c r="Q63">
-        <v>0.28999999999999998</v>
+        <v>0.2903</v>
       </c>
       <c r="S63">
         <v>10</v>
       </c>
       <c r="T63">
-        <v>0.32</v>
+        <v>0.45450000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>801</v>
+      </c>
       <c r="B64">
         <v>32</v>
       </c>
@@ -49891,28 +50103,31 @@
         <v>13</v>
       </c>
       <c r="K64">
-        <v>0.41</v>
+        <v>0.40620000000000001</v>
       </c>
       <c r="M64">
         <v>21</v>
       </c>
       <c r="N64">
-        <v>0.66</v>
+        <v>0.65620000000000001</v>
       </c>
       <c r="P64">
         <v>3</v>
       </c>
       <c r="Q64">
-        <v>0.09</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="S64">
         <v>18</v>
       </c>
       <c r="T64">
-        <v>0.56000000000000005</v>
+        <v>0.78259999999999996</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>802</v>
+      </c>
       <c r="B65">
         <v>32</v>
       </c>
@@ -49929,28 +50144,31 @@
         <v>17</v>
       </c>
       <c r="K65">
-        <v>0.53</v>
+        <v>0.53120000000000001</v>
       </c>
       <c r="M65">
         <v>25</v>
       </c>
       <c r="N65">
-        <v>0.78</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="P65">
         <v>2</v>
       </c>
       <c r="Q65">
-        <v>0.06</v>
+        <v>6.25E-2</v>
       </c>
       <c r="S65">
         <v>21</v>
       </c>
       <c r="T65">
-        <v>0.66</v>
+        <v>0.91300000000000003</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>803</v>
+      </c>
       <c r="B66">
         <v>31</v>
       </c>
@@ -49967,28 +50185,31 @@
         <v>11</v>
       </c>
       <c r="K66">
-        <v>0.35</v>
+        <v>0.3548</v>
       </c>
       <c r="M66">
         <v>20</v>
       </c>
       <c r="N66">
-        <v>0.65</v>
+        <v>0.6452</v>
       </c>
       <c r="P66">
         <v>2</v>
       </c>
       <c r="Q66">
-        <v>0.06</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="S66">
         <v>17</v>
       </c>
       <c r="T66">
-        <v>0.55000000000000004</v>
+        <v>0.77270000000000005</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>804</v>
+      </c>
       <c r="B67">
         <v>32</v>
       </c>
@@ -50005,28 +50226,31 @@
         <v>11</v>
       </c>
       <c r="K67">
-        <v>0.34</v>
+        <v>0.34379999999999999</v>
       </c>
       <c r="M67">
         <v>21</v>
       </c>
       <c r="N67">
-        <v>0.66</v>
+        <v>0.65620000000000001</v>
       </c>
       <c r="P67">
         <v>4</v>
       </c>
       <c r="Q67">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="S67">
         <v>19</v>
       </c>
       <c r="T67">
-        <v>0.59</v>
+        <v>0.82609999999999995</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>805</v>
+      </c>
       <c r="B68">
         <v>31</v>
       </c>
@@ -50043,28 +50267,31 @@
         <v>6</v>
       </c>
       <c r="K68">
-        <v>0.19</v>
+        <v>0.19350000000000001</v>
       </c>
       <c r="M68">
         <v>14</v>
       </c>
       <c r="N68">
-        <v>0.45</v>
+        <v>0.4516</v>
       </c>
       <c r="P68">
         <v>8</v>
       </c>
       <c r="Q68">
-        <v>0.26</v>
+        <v>0.2581</v>
       </c>
       <c r="S68">
         <v>13</v>
       </c>
       <c r="T68">
-        <v>0.42</v>
+        <v>0.59089999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>806</v>
+      </c>
       <c r="B69">
         <v>32</v>
       </c>
@@ -50081,7 +50308,7 @@
         <v>6</v>
       </c>
       <c r="K69">
-        <v>0.19</v>
+        <v>0.1875</v>
       </c>
       <c r="M69">
         <v>16</v>
@@ -50093,13 +50320,13 @@
         <v>9</v>
       </c>
       <c r="Q69">
-        <v>0.28000000000000003</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="S69">
         <v>15</v>
       </c>
       <c r="T69">
-        <v>0.47</v>
+        <v>0.6522</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.15">
@@ -50116,58 +50343,61 @@
         <v>6</v>
       </c>
       <c r="E71" t="s">
+        <v>778</v>
+      </c>
+      <c r="F71" t="s">
         <v>779</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>780</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>781</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>782</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>783</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>784</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>785</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>786</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>787</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>788</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>789</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>790</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="R71" t="s">
         <v>791</v>
       </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
         <v>792</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>793</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>794</v>
       </c>
-      <c r="U71" t="s">
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B72">
         <v>31</v>
       </c>
@@ -50184,28 +50414,31 @@
         <v>7</v>
       </c>
       <c r="K72">
-        <v>0.23</v>
+        <v>0.2258</v>
       </c>
       <c r="M72">
         <v>13</v>
       </c>
       <c r="N72">
-        <v>0.42</v>
+        <v>0.4194</v>
       </c>
       <c r="P72">
         <v>10</v>
       </c>
       <c r="Q72">
-        <v>0.32</v>
+        <v>0.3226</v>
       </c>
       <c r="S72">
         <v>10</v>
       </c>
       <c r="T72">
-        <v>0.32</v>
+        <v>0.45450000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>796</v>
+      </c>
       <c r="B73">
         <v>31</v>
       </c>
@@ -50222,28 +50455,31 @@
         <v>12</v>
       </c>
       <c r="K73">
-        <v>0.39</v>
+        <v>0.3871</v>
       </c>
       <c r="M73">
         <v>22</v>
       </c>
       <c r="N73">
-        <v>0.71</v>
+        <v>0.7097</v>
       </c>
       <c r="P73">
         <v>3</v>
       </c>
       <c r="Q73">
-        <v>0.1</v>
+        <v>9.6799999999999997E-2</v>
       </c>
       <c r="S73">
         <v>17</v>
       </c>
       <c r="T73">
-        <v>0.55000000000000004</v>
+        <v>0.77270000000000005</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>797</v>
+      </c>
       <c r="B74">
         <v>32</v>
       </c>
@@ -50260,28 +50496,31 @@
         <v>10</v>
       </c>
       <c r="K74">
-        <v>0.31</v>
+        <v>0.3125</v>
       </c>
       <c r="M74">
         <v>19</v>
       </c>
       <c r="N74">
-        <v>0.59</v>
+        <v>0.59379999999999999</v>
       </c>
       <c r="P74">
         <v>10</v>
       </c>
       <c r="Q74">
-        <v>0.31</v>
+        <v>0.3125</v>
       </c>
       <c r="S74">
         <v>15</v>
       </c>
       <c r="T74">
-        <v>0.47</v>
+        <v>0.6522</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>798</v>
+      </c>
       <c r="B75">
         <v>32</v>
       </c>
@@ -50298,28 +50537,31 @@
         <v>3</v>
       </c>
       <c r="K75">
-        <v>0.09</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="M75">
         <v>13</v>
       </c>
       <c r="N75">
-        <v>0.41</v>
+        <v>0.40620000000000001</v>
       </c>
       <c r="P75">
         <v>12</v>
       </c>
       <c r="Q75">
-        <v>0.38</v>
+        <v>0.375</v>
       </c>
       <c r="S75">
         <v>10</v>
       </c>
       <c r="T75">
-        <v>0.31</v>
+        <v>0.43480000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>799</v>
+      </c>
       <c r="B76">
         <v>31</v>
       </c>
@@ -50336,28 +50578,31 @@
         <v>1</v>
       </c>
       <c r="K76">
-        <v>0.03</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="M76">
         <v>9</v>
       </c>
       <c r="N76">
-        <v>0.28999999999999998</v>
+        <v>0.2903</v>
       </c>
       <c r="P76">
         <v>8</v>
       </c>
       <c r="Q76">
-        <v>0.26</v>
+        <v>0.2581</v>
       </c>
       <c r="S76">
         <v>7</v>
       </c>
       <c r="T76">
-        <v>0.23</v>
+        <v>0.31819999999999998</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>800</v>
+      </c>
       <c r="B77">
         <v>31</v>
       </c>
@@ -50374,28 +50619,31 @@
         <v>12</v>
       </c>
       <c r="K77">
-        <v>0.39</v>
+        <v>0.3871</v>
       </c>
       <c r="M77">
         <v>22</v>
       </c>
       <c r="N77">
-        <v>0.71</v>
+        <v>0.7097</v>
       </c>
       <c r="P77">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>0.03</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="S77">
         <v>16</v>
       </c>
       <c r="T77">
-        <v>0.52</v>
+        <v>0.72729999999999995</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>801</v>
+      </c>
       <c r="B78">
         <v>32</v>
       </c>
@@ -50412,28 +50660,31 @@
         <v>7</v>
       </c>
       <c r="K78">
-        <v>0.22</v>
+        <v>0.21879999999999999</v>
       </c>
       <c r="M78">
         <v>14</v>
       </c>
       <c r="N78">
-        <v>0.44</v>
+        <v>0.4375</v>
       </c>
       <c r="P78">
         <v>5</v>
       </c>
       <c r="Q78">
-        <v>0.16</v>
+        <v>0.15620000000000001</v>
       </c>
       <c r="S78">
         <v>12</v>
       </c>
       <c r="T78">
-        <v>0.38</v>
+        <v>0.52170000000000005</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>802</v>
+      </c>
       <c r="B79">
         <v>32</v>
       </c>
@@ -50450,28 +50701,31 @@
         <v>4</v>
       </c>
       <c r="K79">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="M79">
         <v>12</v>
       </c>
       <c r="N79">
-        <v>0.38</v>
+        <v>0.375</v>
       </c>
       <c r="P79">
         <v>11</v>
       </c>
       <c r="Q79">
-        <v>0.34</v>
+        <v>0.34379999999999999</v>
       </c>
       <c r="S79">
         <v>12</v>
       </c>
       <c r="T79">
-        <v>0.38</v>
+        <v>0.52170000000000005</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>803</v>
+      </c>
       <c r="B80">
         <v>31</v>
       </c>
@@ -50488,28 +50742,31 @@
         <v>9</v>
       </c>
       <c r="K80">
-        <v>0.28999999999999998</v>
+        <v>0.2903</v>
       </c>
       <c r="M80">
         <v>21</v>
       </c>
       <c r="N80">
-        <v>0.68</v>
+        <v>0.6774</v>
       </c>
       <c r="P80">
         <v>3</v>
       </c>
       <c r="Q80">
-        <v>0.1</v>
+        <v>9.6799999999999997E-2</v>
       </c>
       <c r="S80">
         <v>17</v>
       </c>
       <c r="T80">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.15">
+        <v>0.77270000000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>804</v>
+      </c>
       <c r="B81">
         <v>32</v>
       </c>
@@ -50532,22 +50789,25 @@
         <v>13</v>
       </c>
       <c r="N81">
-        <v>0.41</v>
+        <v>0.40620000000000001</v>
       </c>
       <c r="P81">
         <v>13</v>
       </c>
       <c r="Q81">
-        <v>0.41</v>
+        <v>0.40620000000000001</v>
       </c>
       <c r="S81">
         <v>10</v>
       </c>
       <c r="T81">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.15">
+        <v>0.43480000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>805</v>
+      </c>
       <c r="B82">
         <v>31</v>
       </c>
@@ -50564,28 +50824,31 @@
         <v>9</v>
       </c>
       <c r="K82">
-        <v>0.28999999999999998</v>
+        <v>0.2903</v>
       </c>
       <c r="M82">
         <v>17</v>
       </c>
       <c r="N82">
-        <v>0.55000000000000004</v>
+        <v>0.5484</v>
       </c>
       <c r="P82">
         <v>8</v>
       </c>
       <c r="Q82">
-        <v>0.26</v>
+        <v>0.2581</v>
       </c>
       <c r="S82">
         <v>14</v>
       </c>
       <c r="T82">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.15">
+        <v>0.63639999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>806</v>
+      </c>
       <c r="B83">
         <v>32</v>
       </c>
@@ -50608,19 +50871,19 @@
         <v>12</v>
       </c>
       <c r="N83">
-        <v>0.38</v>
+        <v>0.375</v>
       </c>
       <c r="P83">
         <v>10</v>
       </c>
       <c r="Q83">
-        <v>0.31</v>
+        <v>0.3125</v>
       </c>
       <c r="S83">
         <v>9</v>
       </c>
       <c r="T83">
-        <v>0.28000000000000003</v>
+        <v>0.39129999999999998</v>
       </c>
     </row>
   </sheetData>
